--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail11 Features.xlsx
@@ -6236,7 +6236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,29 +6247,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6290,115 +6288,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6415,72 +6403,66 @@
         <v>1.949903156561078e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.478777974319923</v>
+        <v>1.265505265435446e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.78124406583849</v>
+        <v>1.60883790942395e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.265505265435446e-06</v>
+        <v>-0.1082784490619296</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.60883790942395e-06</v>
+        <v>0.292679272746479</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1082784490619296</v>
+        <v>0.09715245671308556</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.292679272746479</v>
+        <v>1.924205643895851</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09715245671308556</v>
+        <v>3.822870499333429</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.962670967902406</v>
+        <v>8.640660685001963</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.822870499333429</v>
+        <v>2.098240648225521e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.640660685001963</v>
+        <v>58412959462.36868</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.098240648225521e-18</v>
+        <v>2.062560169535668e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>58412959462.36868</v>
+        <v>7159.352011466876</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.062560169535668e-09</v>
+        <v>4.640447521488032e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7159.352011466876</v>
+        <v>10.55249585607886</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.640447521488032e-06</v>
+        <v>1.438006156603572</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.55249585607886</v>
+        <v>0.0005167378170283235</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.438006156603572</v>
+        <v>8.877332065441383</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0005167378170283235</v>
+        <v>0.9635893388039317</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.877332065441383</v>
+        <v>0.6802356178175943</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9635893388039317</v>
+        <v>568</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6802356178175943</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>568</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.47792997911775</v>
       </c>
     </row>
@@ -6495,72 +6477,66 @@
         <v>1.466809164295834e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.327220934198053</v>
+        <v>9.469153616377276e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.83511098567643</v>
+        <v>1.590541102808366e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.469153616377276e-07</v>
+        <v>-0.1077018871631241</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.590541102808366e-06</v>
+        <v>0.2824594133696681</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1077018871631241</v>
+        <v>0.09115909380777278</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2824594133696681</v>
+        <v>1.921973296139441</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09115909380777278</v>
+        <v>3.745933168192458</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.961137778027491</v>
+        <v>7.796460223220356</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.745933168192458</v>
+        <v>2.57723643817929e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.796460223220356</v>
+        <v>47958138781.47576</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.57723643817929e-18</v>
+        <v>2.503225858069248e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>47958138781.47576</v>
+        <v>5927.600189073477</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.503225858069248e-09</v>
+        <v>5.300214291839165e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5927.600189073477</v>
+        <v>11.68695469460528</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.300214291839165e-06</v>
+        <v>1.258834827679964</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.68695469460528</v>
+        <v>0.0007239292922104822</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.258834827679964</v>
+        <v>8.810867872391608</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0007239292922104822</v>
+        <v>0.9613659290445813</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.810867872391608</v>
+        <v>0.672141825091415</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9613659290445813</v>
+        <v>530</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.672141825091415</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>530</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>19.42132162788941</v>
       </c>
     </row>
@@ -6575,72 +6551,66 @@
         <v>1.119638395866129e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.111305927545497</v>
+        <v>7.155244099327248e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>10.52998334658099</v>
+        <v>1.576790789114117e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.155244099327248e-07</v>
+        <v>-0.1066149131662236</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.576790789114117e-06</v>
+        <v>0.2677541502322996</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1066149131662236</v>
+        <v>0.08285483393911426</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2677541502322996</v>
+        <v>1.922513650331927</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08285483393911426</v>
+        <v>4.143347911795309</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.962916004205467</v>
+        <v>6.892983444108095</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.143347911795309</v>
+        <v>3.371142499436979e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.892983444108095</v>
+        <v>36270649972.79279</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.371142499436979e-18</v>
+        <v>3.309339014682506e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>36270649972.79279</v>
+        <v>4434.940393258444</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.309339014682506e-09</v>
+        <v>9.151018072400472e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4434.940393258444</v>
+        <v>12.27511212007381</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.151018072400472e-06</v>
+        <v>1.140127529698176</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.27511212007381</v>
+        <v>0.001378860556175046</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.140127529698176</v>
+        <v>8.541423464373047</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.001378860556175046</v>
+        <v>0.9600468431889073</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.541423464373047</v>
+        <v>0.6705764866086291</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9600468431889073</v>
+        <v>486</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6705764866086291</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>486</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>17.8963966854418</v>
       </c>
     </row>
@@ -6655,72 +6625,66 @@
         <v>8.723963220502797e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.822997075100009</v>
+        <v>5.48330563742383e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.877194897845817</v>
+        <v>1.566334837045332e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.48330563742383e-07</v>
+        <v>-0.1048528118058676</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.566334837045332e-06</v>
+        <v>0.2476830244516996</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1048528118058676</v>
+        <v>0.07216316213317359</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2476830244516996</v>
+        <v>1.919570256438854</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07216316213317359</v>
+        <v>3.10992156934763</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.959999700435254</v>
+        <v>6.639078178101094</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.10992156934763</v>
+        <v>4.742508892747361e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.639078178101094</v>
+        <v>25240432168.08308</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.742508892747361e-18</v>
+        <v>4.705658517678877e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25240432168.08308</v>
+        <v>3021.354795916175</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.705658517678877e-09</v>
+        <v>1.905086298961796e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3021.354795916175</v>
+        <v>13.17092458845968</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.905086298961796e-05</v>
+        <v>1.084020063436532</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.17092458845968</v>
+        <v>0.003304815204126327</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.084020063436532</v>
+        <v>8.062089238976546</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003304815204126327</v>
+        <v>0.9602955804501793</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.062089238976546</v>
+        <v>0.7023229070906875</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9602955804501793</v>
+        <v>435</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7023229070906875</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>435</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>16.05548989436994</v>
       </c>
     </row>
@@ -6735,72 +6699,66 @@
         <v>6.983417607563343e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.46769786606841</v>
+        <v>4.287810627033128e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>7.003592818923124</v>
+        <v>1.558249271225223e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.287810627033128e-07</v>
+        <v>-0.1024215595259958</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.558249271225223e-06</v>
+        <v>0.2225509709255988</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1024215595259958</v>
+        <v>0.05987445414632186</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2225509709255988</v>
+        <v>1.915350322382283</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05987445414632186</v>
+        <v>3.021650694043756</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.954068289361715</v>
+        <v>6.329413227897245</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.021650694043756</v>
+        <v>7.660602155555338e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.329413227897245</v>
+        <v>15457587202.51967</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.660602155555338e-18</v>
+        <v>7.693659962908798e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>15457587202.51967</v>
+        <v>1830.401313509214</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.693659962908798e-09</v>
+        <v>4.065387222115812e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1830.401313509214</v>
+        <v>13.56802481351653</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.065387222115812e-05</v>
+        <v>1.081601894175839</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.56802481351653</v>
+        <v>0.007484024079095727</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.081601894175839</v>
+        <v>7.332169076859761</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007484024079095727</v>
+        <v>0.9592453706691512</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.332169076859761</v>
+        <v>0.7336795272827655</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9592453706691512</v>
+        <v>378</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7336795272827655</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>378</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>13.46117855425751</v>
       </c>
     </row>
@@ -6815,72 +6773,66 @@
         <v>5.77197098124686e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.061350431333712</v>
+        <v>3.448925432770895e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5.092773513962698</v>
+        <v>1.551844217879053e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.448925432770895e-07</v>
+        <v>-0.09966679704662841</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.551844217879053e-06</v>
+        <v>0.1946276944036531</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09966679704662841</v>
+        <v>0.04770339800418554</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1946276944036531</v>
+        <v>1.916597671292714</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04770339800418554</v>
+        <v>2.634281928962289</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.952432051644812</v>
+        <v>5.568738848718966</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.634281928962289</v>
+        <v>1.331643749846675e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.568738848718966</v>
+        <v>8919458114.881639</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.331643749846675e-17</v>
+        <v>1.332418636969785e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8919458114.881639</v>
+        <v>1059.412263417346</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.332418636969785e-08</v>
+        <v>7.430240241605029e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1059.412263417346</v>
+        <v>13.57926296305616</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>7.430240241605029e-05</v>
+        <v>1.079380402323119</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.57926296305616</v>
+        <v>0.01370109422548251</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.079380402323119</v>
+        <v>6.42804106664035</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01370109422548251</v>
+        <v>0.9596641541743105</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.42804106664035</v>
+        <v>0.7784220605574582</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9596641541743105</v>
+        <v>337</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7784220605574582</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>337</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>10.4596672521911</v>
       </c>
     </row>
@@ -6895,72 +6847,66 @@
         <v>4.940583580961704e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.625003002267595</v>
+        <v>2.86963990624208e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.317700098340918</v>
+        <v>1.54660925695099e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.86963990624208e-07</v>
+        <v>-0.09687463867947602</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.54660925695099e-06</v>
+        <v>0.1655857517771056</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.09687463867947602</v>
+        <v>0.03672262525886213</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1655857517771056</v>
+        <v>1.915574227491535</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03672262525886213</v>
+        <v>2.422028147181973</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.949872344863967</v>
+        <v>5.599145023203566</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.422028147181973</v>
+        <v>2.461454799682315e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.599145023203566</v>
+        <v>4935155840.584963</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.461454799682315e-17</v>
+        <v>2.412110724438002e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>4935155840.584963</v>
+        <v>599.5061015683879</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.412110724438002e-08</v>
+        <v>0.0001196776668493159</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>599.5061015683879</v>
+        <v>13.48144288982374</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001196776668493159</v>
+        <v>1.094061307889808</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.48144288982374</v>
+        <v>0.02175133246171499</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.094061307889808</v>
+        <v>5.384161434723832</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02175133246171499</v>
+        <v>0.9603233834855004</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.384161434723832</v>
+        <v>0.8570210309327576</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9603233834855004</v>
+        <v>292</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8570210309327576</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>292</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>7.42811323056585</v>
       </c>
     </row>
@@ -6975,72 +6921,66 @@
         <v>4.38779743522205e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.184692086826645</v>
+        <v>2.480722050225989e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.851764379562843</v>
+        <v>1.542173491801405e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.480722050225989e-07</v>
+        <v>-0.09429043923948564</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.542173491801405e-06</v>
+        <v>0.1369034984873742</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.09429043923948564</v>
+        <v>0.02757542553585881</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1369034984873742</v>
+        <v>1.90874958513634</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02757542553585881</v>
+        <v>2.314849168375492</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.946089364058257</v>
+        <v>4.925455743223969</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.314849168375492</v>
+        <v>4.417615492236499e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.925455743223969</v>
+        <v>2750276881.896051</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.417615492236499e-17</v>
+        <v>4.335869676037416e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2750276881.896051</v>
+        <v>334.1494486635308</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.335869676037416e-08</v>
+        <v>0.0001685472634613847</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>334.1494486635308</v>
+        <v>13.43623871473742</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001685472634613847</v>
+        <v>1.096827731451288</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.43623871473742</v>
+        <v>0.03042826066105322</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.096827731451288</v>
+        <v>4.324156872879154</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03042826066105322</v>
+        <v>0.9580168594377092</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.324156872879154</v>
+        <v>0.9063931142970754</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9580168594377092</v>
+        <v>252</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9063931142970754</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>252</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.780229400667507</v>
       </c>
     </row>
@@ -7055,72 +6995,66 @@
         <v>4.043340165288987e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7657584068205657</v>
+        <v>2.2108092622148e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.8219337441387804</v>
+        <v>1.538274993777974e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.2108092622148e-07</v>
+        <v>-0.09117784591434185</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.538274993777974e-06</v>
+        <v>0.1103167859135013</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.09117784591434185</v>
+        <v>0.02044598347608412</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1103167859135013</v>
+        <v>1.765175786882092</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02044598347608412</v>
+        <v>1.357946950702413</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.816179095214625</v>
+        <v>30.52855757658568</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.357946950702413</v>
+        <v>2.601799422218848e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>30.52855757658568</v>
+        <v>4150356684.486364</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.601799422218848e-16</v>
+        <v>2.630940278802139e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4150356684.486364</v>
+        <v>4481.719345854642</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.630940278802139e-08</v>
+        <v>0.0001242136411270136</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4481.719345854642</v>
+        <v>10.60868789483014</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001242136411270136</v>
+        <v>1.47782047614588</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.60868789483014</v>
+        <v>0.01397953217968914</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.47782047614588</v>
+        <v>5.389306192022173</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01397953217968914</v>
+        <v>0.959814019161817</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.389306192022173</v>
+        <v>0.8259670271489794</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.959814019161817</v>
+        <v>207</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8259670271489794</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>4.88666631327272</v>
       </c>
     </row>
@@ -7135,72 +7069,66 @@
         <v>3.84715395873807e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3966482807667754</v>
+        <v>2.012614607294307e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2290871015817983</v>
+        <v>1.534764209418294e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.012614607294307e-07</v>
+        <v>-0.08722633886113661</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.534764209418294e-06</v>
+        <v>0.08785914223471826</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.08722633886113661</v>
+        <v>0.01530544439128492</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08785914223471826</v>
+        <v>1.760863000177634</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01530544439128492</v>
+        <v>1.356924839828457</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.812877027616931</v>
+        <v>29.18308563971111</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.356924839828457</v>
+        <v>2.847239262914598e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>29.18308563971111</v>
+        <v>3792440049.399081</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.847239262914598e-16</v>
+        <v>2.879162453219648e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3792440049.399081</v>
+        <v>4095.070777419171</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.879162453219648e-08</v>
+        <v>3.820317380038844e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4095.070777419171</v>
+        <v>8.542369124240459</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3.820317380038844e-05</v>
+        <v>1.902016447432106</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.542369124240459</v>
+        <v>0.002787764682517391</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.902016447432106</v>
+        <v>7.486136671841686</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.002787764682517391</v>
+        <v>0.9588503175143481</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.486136671841686</v>
+        <v>0.6908482286044771</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9588503175143481</v>
+        <v>156</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6908482286044771</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>7.522811073858076</v>
       </c>
     </row>
@@ -7215,72 +7143,66 @@
         <v>3.75089589512683e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.09181437682008503</v>
+        <v>1.869184247002688e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.05291462386659163</v>
+        <v>1.531535797571747e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.869184247002688e-07</v>
+        <v>-0.08308040531899788</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.531535797571747e-06</v>
+        <v>0.07126668292088859</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.08308040531899788</v>
+        <v>0.0119686881343092</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07126668292088859</v>
+        <v>1.761272708426079</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0119686881343092</v>
+        <v>1.351485303756369</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.80984764330687</v>
+        <v>28.53645050120376</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.351485303756369</v>
+        <v>2.977737964848902e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>28.53645050120376</v>
+        <v>3624559061.882112</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.977737964848902e-16</v>
+        <v>3.012328929864875e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3624559061.882112</v>
+        <v>3911.98192865336</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.012328929864875e-08</v>
+        <v>1.624586768733869e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3911.98192865336</v>
+        <v>8.046276229151568</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1.624586768733869e-05</v>
+        <v>1.466529116190941</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.046276229151568</v>
+        <v>0.001051799082276716</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.466529116190941</v>
+        <v>8.107807057145267</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.001051799082276716</v>
+        <v>0.9593521238164494</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.107807057145267</v>
+        <v>0.8094182894727934</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9593521238164494</v>
+        <v>110</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8094182894727934</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>8.916993483613375</v>
       </c>
     </row>
@@ -7295,72 +7217,66 @@
         <v>3.719489484815801e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1477379967174434</v>
+        <v>1.762918370948324e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1682741008063648</v>
+        <v>1.528513135685007e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.762918370948324e-07</v>
+        <v>-0.07901261859595124</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.528513135685007e-06</v>
+        <v>0.0597492856271311</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.07901261859595124</v>
+        <v>0.009805644004267981</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0597492856271311</v>
+        <v>1.759711962879719</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009805644004267981</v>
+        <v>1.347790284717304</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.806688460372349</v>
+        <v>28.20041623329611</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.347790284717304</v>
+        <v>3.049125823879401e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>28.20041623329611</v>
+        <v>3539254773.586777</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.049125823879401e-16</v>
+        <v>3.084804311517255e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>3539254773.586777</v>
+        <v>3819.43390610605</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.084804311517255e-08</v>
+        <v>1.21178590221534e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3819.43390610605</v>
+        <v>8.532340366181502</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>1.21178590221534e-05</v>
+        <v>1.266390827234322</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.532340366181502</v>
+        <v>0.000882190220378576</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.266390827234322</v>
+        <v>8.268128221847226</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.000882190220378576</v>
+        <v>0.9592529459136842</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.268128221847226</v>
+        <v>0.8217281156595602</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9592529459136842</v>
+        <v>67</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8217281156595602</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>9.510559269346512</v>
       </c>
     </row>
@@ -7375,72 +7291,66 @@
         <v>3.729705703585201e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.326987130582548</v>
+        <v>1.681329675006274e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.2161614262257565</v>
+        <v>1.525645785939811e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.681329675006274e-07</v>
+        <v>-0.07514479909072438</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.525645785939811e-06</v>
+        <v>0.05194816268595179</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07514479909072438</v>
+        <v>0.008341092648631183</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05194816268595179</v>
+        <v>1.756550004856982</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008341092648631183</v>
+        <v>1.343165832715684</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.805252447773816</v>
+        <v>28.01728864178092</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.343165832715684</v>
+        <v>3.089115697561318e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>28.01728864178092</v>
+        <v>3491756077.460073</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.089115697561318e-16</v>
+        <v>3.126440255989676e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>3491756077.460073</v>
+        <v>3766.361222471381</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.126440255989676e-08</v>
+        <v>1.116355440538495e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3766.361222471381</v>
+        <v>8.824104156355665</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>1.116355440538495e-05</v>
+        <v>1.267167191689281</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.824104156355665</v>
+        <v>0.0008692480891650572</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.267167191689281</v>
+        <v>8.321028783881019</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0008692480891650572</v>
+        <v>0.9570495949203246</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.321028783881019</v>
+        <v>0.7069009609769517</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9570495949203246</v>
+        <v>34</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7069009609769517</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>9.744999116260558</v>
       </c>
     </row>
@@ -7455,72 +7365,66 @@
         <v>3.765892934567472e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.454702371710888</v>
+        <v>1.617549663499817e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2515875575162156</v>
+        <v>1.522898859615076e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.617549663499817e-07</v>
+        <v>-0.07159597731743234</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.522898859615076e-06</v>
+        <v>0.04690328915296246</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.07159597731743234</v>
+        <v>0.00732345994324996</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04690328915296246</v>
+        <v>1.751993478820463</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00732345994324996</v>
+        <v>1.334187672314837</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.801867354542126</v>
+        <v>27.93268824829723</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.334187672314837</v>
+        <v>3.107856190072032e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>27.93268824829723</v>
+        <v>3468369300.374956</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.107856190072032e-16</v>
+        <v>3.147038545336975e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>3468369300.374956</v>
+        <v>3738.622208271983</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.147038545336975e-08</v>
+        <v>1.137826618955548e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3738.622208271983</v>
+        <v>8.368510355334577</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.137826618955548e-05</v>
+        <v>1.286754010479878</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.368510355334577</v>
+        <v>0.0007968423460030013</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.286754010479878</v>
+        <v>8.358421320796221</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0007968423460030013</v>
+        <v>0.9538417477230718</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.358421320796221</v>
+        <v>0.8278984033660569</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9538417477230718</v>
+        <v>9</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8278984033660569</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>9.719800912570168</v>
       </c>
     </row>
@@ -7535,72 +7439,66 @@
         <v>3.817404733136032e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.540942462373564</v>
+        <v>1.567024191561076e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.2984551969633373</v>
+        <v>1.520246659841148e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.567024191561076e-07</v>
+        <v>-0.06842092089067575</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.520246659841148e-06</v>
+        <v>0.04375843806873773</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06842092089067575</v>
+        <v>0.006594863097263483</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04375843806873773</v>
+        <v>1.750033642251154</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.006594863097263483</v>
+        <v>1.330509536184405</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.79993957117807</v>
+        <v>27.89563387373781</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.330509536184405</v>
+        <v>3.116118139049803e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>27.89563387373781</v>
+        <v>3458927080.710978</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.116118139049803e-16</v>
+        <v>3.155569028513844e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>3458927080.710978</v>
+        <v>3728.178756523895</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.155569028513844e-08</v>
+        <v>1.682839050575783e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3728.178756523895</v>
+        <v>7.979035285387845</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>1.682839050575783e-05</v>
+        <v>1.743757502509426</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.979035285387845</v>
+        <v>0.001071379550300861</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.743757502509426</v>
+        <v>8.211137020782793</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.001071379550300861</v>
+        <v>0.9537652369312882</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.211137020782793</v>
+        <v>0.8615061314604704</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9537652369312882</v>
+        <v>5</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.8615061314604704</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>9.159582608782452</v>
       </c>
     </row>
@@ -7615,72 +7513,66 @@
         <v>3.876963140623941e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.5950300105998074</v>
+        <v>1.526443294225199e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3631330728065452</v>
+        <v>1.517669978223655e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.526443294225199e-07</v>
+        <v>-0.06562293540978553</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.517669978223655e-06</v>
+        <v>0.0418588690659257</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06562293540978553</v>
+        <v>0.006057834181977239</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0418588690659257</v>
+        <v>1.746868745217259</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006057834181977239</v>
+        <v>1.327412665110137</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.798108183432259</v>
+        <v>27.8926596024965</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.327412665110137</v>
+        <v>3.116782735029063e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>27.8926596024965</v>
+        <v>3457727078.859902</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.116782735029063e-16</v>
+        <v>3.156604143556123e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3457727078.859902</v>
+        <v>3726.38696190416</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.156604143556123e-08</v>
+        <v>1.76641254877818e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3726.38696190416</v>
+        <v>7.966091204982996</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>1.76641254877818e-05</v>
+        <v>1.661857754169621</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.966091204982996</v>
+        <v>0.001120940834177092</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.661857754169621</v>
+        <v>8.121748774843697</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.001120940834177092</v>
+        <v>0.9540741629924542</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.121748774843697</v>
+        <v>0.7707206159486187</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9540741629924542</v>
+        <v>5</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7707206159486187</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>8.917581454493906</v>
       </c>
     </row>
@@ -7695,72 +7587,66 @@
         <v>3.9394886393741e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.6246915940785491</v>
+        <v>1.492753899151846e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4441241253619275</v>
+        <v>1.515154719987787e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.492753899151846e-07</v>
+        <v>-0.06315436015014704</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.515154719987787e-06</v>
+        <v>0.04072049814887364</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06315436015014704</v>
+        <v>0.00564630795647864</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04072049814887364</v>
+        <v>1.746150488246273</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.00564630795647864</v>
+        <v>1.322283062442931</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.798278143370081</v>
+        <v>27.93468790234592</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.322283062442931</v>
+        <v>3.10741126548199e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>27.93468790234592</v>
+        <v>3467491286.803516</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.10741126548199e-16</v>
+        <v>3.147674433227612e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>3467491286.803516</v>
+        <v>3736.194637415445</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.147674433227612e-08</v>
+        <v>1.25675192507201e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3736.194637415445</v>
+        <v>8.549260833516799</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>1.25675192507201e-05</v>
+        <v>1.265877646434413</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.549260833516799</v>
+        <v>0.0009185582326302234</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.265877646434413</v>
+        <v>8.249983873683897</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0009185582326302234</v>
+        <v>0.9557808156456781</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.249983873683897</v>
+        <v>0.7701719809793778</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9557808156456781</v>
+        <v>3</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.7701719809793778</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>9.444967095820884</v>
       </c>
     </row>
@@ -7775,72 +7661,66 @@
         <v>4.001513105332731e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.6358038572413243</v>
+        <v>1.463450497730487e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.5371766286636914</v>
+        <v>1.512691677654336e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.463450497730487e-07</v>
+        <v>-0.0609535296806387</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.512691677654336e-06</v>
+        <v>0.04004591647924481</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0609535296806387</v>
+        <v>0.005318912223859935</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04004591647924481</v>
+        <v>1.743884367620693</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005318912223859935</v>
+        <v>1.317390245256207</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.795757539491077</v>
+        <v>28.04219557623806</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.317390245256207</v>
+        <v>3.083630661058734e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>28.04219557623806</v>
+        <v>3493670813.91248</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.083630661058734e-16</v>
+        <v>3.124043734624818e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3493670813.91248</v>
+        <v>3763.798101793282</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.124043734624818e-08</v>
+        <v>1.118960846767752e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3763.798101793282</v>
+        <v>8.775137932048215</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>1.118960846767752e-05</v>
+        <v>1.270803190133336</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.775137932048215</v>
+        <v>0.0008616339324978838</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.270803190133336</v>
+        <v>8.322153267461635</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0008616339324978838</v>
+        <v>0.9570841083600379</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.322153267461635</v>
+        <v>0.8307690203386837</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9570841083600379</v>
+        <v>3</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8307690203386837</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>9.732069247005532</v>
       </c>
     </row>
@@ -7855,72 +7735,66 @@
         <v>4.060525390980576e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.6327534323174913</v>
+        <v>1.436206828024882e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6378427421110837</v>
+        <v>1.510275385586091e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.436206828024882e-07</v>
+        <v>-0.05894821689150218</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.510275385586091e-06</v>
+        <v>0.03970908031268326</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05894821689150218</v>
+        <v>0.005051741592841458</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.03970908031268326</v>
+        <v>1.741625116263872</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005051741592841458</v>
+        <v>1.313105539993302</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.792364430117097</v>
+        <v>28.23091742462087</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.313105539993302</v>
+        <v>3.042540722288256e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>28.23091742462087</v>
+        <v>3539906969.51632</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.042540722288256e-16</v>
+        <v>3.083156236666679e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3539906969.51632</v>
+        <v>3812.589935459182</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.083156236666679e-08</v>
+        <v>1.061671900116988e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3812.589935459182</v>
+        <v>8.376408942859959</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>1.061671900116988e-05</v>
+        <v>1.277856047870694</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.376408942859959</v>
+        <v>0.0007449138796366431</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.277856047870694</v>
+        <v>8.39410014959029</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0007449138796366431</v>
+        <v>0.9564693020804644</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.39410014959029</v>
+        <v>0.7901833260389337</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9564693020804644</v>
+        <v>5</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7901833260389337</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>9.839481513583038</v>
       </c>
     </row>
@@ -7935,72 +7809,66 @@
         <v>4.114500815691439e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.6186598241934976</v>
+        <v>1.408772652778751e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.7424701814069024</v>
+        <v>1.507904407394401e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.408772652778751e-07</v>
+        <v>-0.05706254902510535</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.507904407394401e-06</v>
+        <v>0.03968313375589482</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05706254902510535</v>
+        <v>0.004830993184837299</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.03968313375589482</v>
+        <v>1.739833333549076</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004830993184837299</v>
+        <v>1.309160936854243</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.79140976095636</v>
+        <v>28.62656533521152</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.309160936854243</v>
+        <v>2.95901996622276e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>28.62656533521152</v>
+        <v>3639881738.412099</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.95901996622276e-16</v>
+        <v>2.99858704485638e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>3639881738.412099</v>
+        <v>3920.328343429854</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.99858704485638e-08</v>
+        <v>1.283307707897446e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3920.328343429854</v>
+        <v>7.958451991212356</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>1.283307707897446e-05</v>
+        <v>1.58946961252923</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.958451991212356</v>
+        <v>0.000812808065199286</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.58946961252923</v>
+        <v>8.378620461645488</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.000812808065199286</v>
+        <v>0.9586012774949335</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.378620461645488</v>
+        <v>0.8222481591104226</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9586012774949335</v>
+        <v>5</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8222481591104226</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>9.648570493471924</v>
       </c>
     </row>
@@ -8015,72 +7883,66 @@
         <v>4.161741663112829e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.5957565203863771</v>
+        <v>1.381482756250062e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.8481517730177259</v>
+        <v>1.505580654990639e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.381482756250062e-07</v>
+        <v>-0.05522918126187387</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.505580654990639e-06</v>
+        <v>0.04000556775773821</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05522918126187387</v>
+        <v>0.004650840035474361</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04000556775773821</v>
+        <v>1.737318229239353</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004650840035474361</v>
+        <v>1.303996105896945</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.789028200400795</v>
+        <v>29.43550331510322</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.303996105896945</v>
+        <v>2.798616889490661e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>29.43550331510322</v>
+        <v>3847672241.757196</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.798616889490661e-16</v>
+        <v>2.836472825367117e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>3847672241.757196</v>
+        <v>4143.235233146082</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.836472825367117e-08</v>
+        <v>2.787023002058286e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4143.235233146082</v>
+        <v>8.67198263279024</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>2.787023002058286e-05</v>
+        <v>1.948239268235048</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.67198263279024</v>
+        <v>0.00209593278947673</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.948239268235048</v>
+        <v>8.011751378347361</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.00209593278947673</v>
+        <v>0.95639469723182</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.011751378347361</v>
+        <v>0.8527365395239641</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.95639469723182</v>
+        <v>5</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8527365395239641</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>8.811507755676375</v>
       </c>
     </row>
@@ -8095,72 +7957,66 @@
         <v>4.200550192648547e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.5656309406108214</v>
+        <v>1.356430473314667e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9526751750349671</v>
+        <v>1.503309641310789e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.356430473314667e-07</v>
+        <v>-0.05336183386968313</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.503309641310789e-06</v>
+        <v>0.04082587824244536</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05336183386968313</v>
+        <v>0.004514331666666942</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04082587824244536</v>
+        <v>1.734900306883619</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004514331666666942</v>
+        <v>1.295281940181993</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.787010118811392</v>
+        <v>31.24408652641857</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.295281940181993</v>
+        <v>2.483995011795572e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>31.24408652641857</v>
+        <v>4332806819.473939</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.483995011795572e-16</v>
+        <v>2.518616319820569e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>4332806819.473939</v>
+        <v>4663.257225360773</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.518616319820569e-08</v>
+        <v>0.0001034285474900317</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>4663.257225360773</v>
+        <v>11.23817279170442</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001034285474900317</v>
+        <v>1.349979120010131</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.23817279170442</v>
+        <v>0.0130626664126531</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.349979120010131</v>
+        <v>5.905244331879762</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0130626664126531</v>
+        <v>0.9543422364675518</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.905244331879762</v>
+        <v>0.8143784363571478</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9543422364675518</v>
+        <v>5</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8143784363571478</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>5.596195962732142</v>
       </c>
     </row>
@@ -8175,72 +8031,66 @@
         <v>4.229248226182067e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.5294944703843563</v>
+        <v>1.33309939452907e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.054097611180071</v>
+        <v>1.501100145303464e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.33309939452907e-07</v>
+        <v>-0.05145617132002385</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.501100145303464e-06</v>
+        <v>0.04216905511337345</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05145617132002385</v>
+        <v>0.004426012847411376</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04216905511337345</v>
+        <v>1.745556659398317</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004426012847411376</v>
+        <v>1.29048064946307</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.85453096712768</v>
+        <v>35.5300239931988</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.29048064946307</v>
+        <v>1.920858534581911e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>35.5300239931988</v>
+        <v>5602319522.335018</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.920858534581911e-16</v>
+        <v>1.947811869678017e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>5602319522.335018</v>
+        <v>6028.803529092261</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.947811869678017e-08</v>
+        <v>0.0002348709690865271</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>6028.803529092261</v>
+        <v>12.41100448885118</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002348709690865271</v>
+        <v>1.225188146837281</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.41100448885118</v>
+        <v>0.03617788759635833</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.225188146837281</v>
+        <v>3.070220168039148</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03617788759635833</v>
+        <v>0.9559592669654087</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.070220168039148</v>
+        <v>0.6297519357992036</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9559592669654087</v>
+        <v>5</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6297519357992036</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.026463131843283</v>
       </c>
     </row>
@@ -8255,72 +8105,66 @@
         <v>4.247259896540605e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.4887301021498168</v>
+        <v>1.311154219944597e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.150129329409005</v>
+        <v>1.498957251234171e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.311154219944597e-07</v>
+        <v>-0.04966122857157955</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.498957251234171e-06</v>
+        <v>0.04368630963583988</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04966122857157955</v>
+        <v>0.004374771901863584</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.04368630963583988</v>
+        <v>1.921162705324087</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004374771901863584</v>
+        <v>2.107646967246763</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.949683390044061</v>
+        <v>6.184965122778067</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.107646967246763</v>
+        <v>1.582422070384448e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>6.184965122778067</v>
+        <v>4857434279.296179</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.582422070384448e-17</v>
+        <v>2.475093029269773e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>4857434279.296179</v>
+        <v>373.3672303479212</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.475093029269773e-08</v>
+        <v>0.000177423408855053</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>373.3672303479212</v>
+        <v>12.12040841484334</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000177423408855053</v>
+        <v>1.188347365303362</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>12.12040841484334</v>
+        <v>0.02606426170676688</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.188347365303362</v>
+        <v>3.873088501132697</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02606426170676688</v>
+        <v>0.9531347926419593</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.873088501132697</v>
+        <v>1.079154153483963</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9531347926419593</v>
+        <v>5</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.079154153483963</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>3.434529766121561</v>
       </c>
     </row>
@@ -8335,72 +8179,66 @@
         <v>4.255339558767202e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4447818854595605</v>
+        <v>1.290208498269761e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.238806572211189</v>
+        <v>1.496878991049472e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.290208498269761e-07</v>
+        <v>-0.04814183241508807</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.496878991049472e-06</v>
+        <v>0.04497035504439938</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04814183241508807</v>
+        <v>0.004340063489327004</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.04497035504439938</v>
+        <v>1.929838234527211</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004340063489327004</v>
+        <v>2.13691970892412</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.955740731856322</v>
+        <v>5.98076753256676</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.13691970892412</v>
+        <v>1.596162009538451e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.98076753256676</v>
+        <v>4816539439.440022</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.596162009538451e-17</v>
+        <v>2.499958371297723e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>4816539439.440022</v>
+        <v>370.2944573373803</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.499958371297723e-08</v>
+        <v>0.0001732477606166483</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>370.2944573373803</v>
+        <v>9.603390384633098</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001732477606166483</v>
+        <v>1.646308217744564</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.603390384633098</v>
+        <v>0.01597779323953274</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.646308217744564</v>
+        <v>3.953529444942526</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01597779323953274</v>
+        <v>0.9540769553373589</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.953529444942526</v>
+        <v>1.121434171715977</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9540769553373589</v>
+        <v>5</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.121434171715977</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>2.800924650209748</v>
       </c>
     </row>
@@ -8415,72 +8253,66 @@
         <v>4.25545280872361e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.3988805687897863</v>
+        <v>1.270091612427473e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.319072224337783</v>
+        <v>1.494855252181223e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.270091612427473e-07</v>
+        <v>-0.04701960550519792</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.494855252181223e-06</v>
+        <v>0.04581196346376198</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04701960550519792</v>
+        <v>0.00430972238147962</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.04581196346376198</v>
+        <v>1.928186492744341</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00430972238147962</v>
+        <v>2.244132746928232</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.953803925829249</v>
+        <v>4.610946096838681</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.244132746928232</v>
+        <v>2.037462235873117e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.610946096838681</v>
+        <v>3802828507.392962</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.037462235873117e-17</v>
+        <v>3.167310540038549e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>3802828507.392962</v>
+        <v>294.6476961180841</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.167310540038549e-08</v>
+        <v>0.0001849197878721612</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>294.6476961180841</v>
+        <v>9.441008887384141</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001849197878721612</v>
+        <v>1.569952752333294</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.441008887384141</v>
+        <v>0.01648239051073718</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.569952752333294</v>
+        <v>3.404643730896144</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01648239051073718</v>
+        <v>0.9548370712255239</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.404643730896144</v>
+        <v>1.087623693671905</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9548370712255239</v>
+        <v>5</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.087623693671905</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.533380335208884</v>
       </c>
     </row>
@@ -8495,72 +8327,66 @@
         <v>4.249602961996905e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.3519127011268174</v>
+        <v>1.251280699894884e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.390869484444154</v>
+        <v>1.492872287646888e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.251280699894884e-07</v>
+        <v>-0.0462770122323436</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.492872287646888e-06</v>
+        <v>0.04634384627881483</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.0462770122323436</v>
+        <v>0.004289471118475431</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.04634384627881483</v>
+        <v>1.927972205228409</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.004289471118475431</v>
+        <v>2.319487733396797</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.955841552538169</v>
+        <v>3.969190403388637</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.319487733396797</v>
+        <v>2.263437422614109e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.969190403388637</v>
+        <v>3401774733.593046</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.263437422614109e-17</v>
+        <v>3.540855322153929e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>3401774733.593046</v>
+        <v>261.9265932384292</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.540855322153929e-08</v>
+        <v>0.0001821804418585216</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>261.9265932384292</v>
+        <v>10.79769296264442</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001821804418585216</v>
+        <v>1.176305146557479</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.79769296264442</v>
+        <v>0.02124044929098685</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.176305146557479</v>
+        <v>3.009924598517397</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02124044929098685</v>
+        <v>0.9576371103727538</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.009924598517397</v>
+        <v>1.087332522897086</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9576371103727538</v>
+        <v>5</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.087332522897086</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.049908165737131</v>
       </c>
     </row>
@@ -8575,72 +8401,66 @@
         <v>4.23917991294876e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3043767194263018</v>
+        <v>1.232976275322777e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.454584477830837</v>
+        <v>1.490919075551324e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.232976275322777e-07</v>
+        <v>-0.04577826198916735</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.490919075551324e-06</v>
+        <v>0.0467385642794865</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04577826198916735</v>
+        <v>0.004280288873019714</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.0467385642794865</v>
+        <v>1.925025142079112</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.004280288873019714</v>
+        <v>2.401602097795863</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.953476037582348</v>
+        <v>3.943470555050109</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.401602097795863</v>
+        <v>2.293058595305266e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.943470555050109</v>
+        <v>3463108618.245332</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.293058595305266e-17</v>
+        <v>3.480656893532991e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>3463108618.245332</v>
+        <v>275.0092988555113</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.480656893532991e-08</v>
+        <v>0.0001903898543958496</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>275.0092988555113</v>
+        <v>12.10159958967996</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001903898543958496</v>
+        <v>1.053446167824204</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>12.10159958967996</v>
+        <v>0.02788234907388392</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.053446167824204</v>
+        <v>2.693526118072965</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02788234907388392</v>
+        <v>0.9604638761245893</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.693526118072965</v>
+        <v>1.08583900206179</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9604638761245893</v>
+        <v>5</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.08583900206179</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.9544284372021852</v>
       </c>
     </row>
@@ -8655,72 +8475,66 @@
         <v>4.225057508695211e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2564391814653335</v>
+        <v>1.214934759724031e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.510567335265059</v>
+        <v>1.488989480304153e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.214934759724031e-07</v>
+        <v>-0.04541307758262145</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.488989480304153e-06</v>
+        <v>0.04709908493612105</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04541307758262145</v>
+        <v>0.004280811918041551</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.04709908493612105</v>
+        <v>1.926718782410972</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.004280811918041551</v>
+        <v>2.502666693655606</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.953608523508948</v>
+        <v>3.990652292978623</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.502666693655606</v>
+        <v>2.239157172553214e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.990652292978623</v>
+        <v>3505143339.954472</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.239157172553214e-17</v>
+        <v>3.438171476788883e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>3505143339.954472</v>
+        <v>275.1035182416909</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.438171476788883e-08</v>
+        <v>0.0001870129319353982</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>275.1035182416909</v>
+        <v>11.77476945968707</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001870129319353982</v>
+        <v>1.077519468280955</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.77476945968707</v>
+        <v>0.02592844457069747</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.077519468280955</v>
+        <v>2.771028251598935</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02592844457069747</v>
+        <v>0.9620937509702011</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.771028251598935</v>
+        <v>1.072653432438642</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9620937509702011</v>
+        <v>15</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.072653432438642</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.9620666716129648</v>
       </c>
     </row>
@@ -8735,72 +8549,66 @@
         <v>4.207571784237274e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2081304063133845</v>
+        <v>1.197156990204592e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.559086255796718</v>
+        <v>1.487081209686458e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.197156990204592e-07</v>
+        <v>-0.04509913852848781</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.487081209686458e-06</v>
+        <v>0.04748764900732166</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04509913852848781</v>
+        <v>0.004289152234308632</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.04748764900732166</v>
+        <v>1.923074626301555</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.004289152234308632</v>
+        <v>2.558459305353789</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.951091442501441</v>
+        <v>4.043088279921866</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.558459305353789</v>
+        <v>2.181453244114085e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.043088279921866</v>
+        <v>3588262765.798982</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.181453244114085e-17</v>
+        <v>3.350522654940747e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>3588262765.798982</v>
+        <v>280.875841276366</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.350522654940747e-08</v>
+        <v>0.0001844829070320395</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>280.875841276366</v>
+        <v>9.835235338036124</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001844829070320395</v>
+        <v>1.321405528714366</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.835235338036124</v>
+        <v>0.01784537365703149</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.321405528714366</v>
+        <v>3.029556676279968</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01784537365703149</v>
+        <v>0.9636017242184678</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.029556676279968</v>
+        <v>1.095557896785163</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9636017242184678</v>
+        <v>59</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.095557896785163</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.9150198792018159</v>
       </c>
     </row>
@@ -8815,72 +8623,66 @@
         <v>4.186675141941731e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.1594284131684269</v>
+        <v>1.179775735102743e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.600361131143728</v>
+        <v>1.485194439150437e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.179775735102743e-07</v>
+        <v>-0.0447933282265098</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.485194439150437e-06</v>
+        <v>0.04794105342284043</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.0447933282265098</v>
+        <v>0.004304934815987964</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.04794105342284043</v>
+        <v>1.927395561245866</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.004304934815987964</v>
+        <v>2.576421135838457</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.955859580750446</v>
+        <v>4.07475403656303</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.576421135838457</v>
+        <v>2.147679936730396e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.07475403656303</v>
+        <v>3845758702.377508</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.147679936730396e-17</v>
+        <v>3.145786075024857e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>3845758702.377508</v>
+        <v>317.6388558242008</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.145786075024857e-08</v>
+        <v>0.0001994314780981613</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>317.6388558242008</v>
+        <v>9.21186449892299</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001994314780981613</v>
+        <v>1.567130553333757</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.21186449892299</v>
+        <v>0.01692344562331731</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.567130553333757</v>
+        <v>3.018261522826803</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01692344562331731</v>
+        <v>0.9643962574896289</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.018261522826803</v>
+        <v>1.10703612772171</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9643962574896289</v>
+        <v>74</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.10703612772171</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.8151293948237412</v>
       </c>
     </row>
@@ -9257,7 +9059,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.459997230151506</v>
+        <v>1.475424251593872</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.304948645328753</v>
@@ -9346,7 +9148,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469082615597092</v>
+        <v>1.484180401611431</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.359300566646327</v>
@@ -9435,7 +9237,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466035715491152</v>
+        <v>1.478820419268525</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.214065841544854</v>
@@ -9524,7 +9326,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.487420528114362</v>
+        <v>1.493227486498691</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.23200154498283</v>
@@ -9613,7 +9415,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.506199914765243</v>
+        <v>1.506283494252942</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.358058257516916</v>
@@ -9702,7 +9504,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.521782772833663</v>
+        <v>1.517964645023921</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.341845624440932</v>
@@ -9791,7 +9593,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.517165144443534</v>
+        <v>1.513229671823622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.296756257447141</v>
@@ -9880,7 +9682,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.514231851358491</v>
+        <v>1.506753752364733</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.123977911548562</v>
@@ -9969,7 +9771,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567771695562291</v>
+        <v>1.543967094558349</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.571966291909724</v>
@@ -10058,7 +9860,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.542258623897709</v>
+        <v>1.527130865604053</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.437135249541916</v>
@@ -10147,7 +9949,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562737732365172</v>
+        <v>1.546609146764224</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.429914336704053</v>
@@ -10236,7 +10038,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.577645409066638</v>
+        <v>1.558486750366177</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.517599358117957</v>
@@ -10325,7 +10127,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.561588449094659</v>
+        <v>1.538869559765541</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.606225584035032</v>
@@ -10414,7 +10216,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566782093221592</v>
+        <v>1.544557731173823</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.686661962943351</v>
@@ -10503,7 +10305,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.560839206067819</v>
+        <v>1.543418368861427</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.5778667716993</v>
@@ -10592,7 +10394,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.563377403645786</v>
+        <v>1.551378372581309</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.576236186875197</v>
@@ -10681,7 +10483,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583885349660889</v>
+        <v>1.567387141145697</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.529851051170134</v>
@@ -10770,7 +10572,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.586372132433262</v>
+        <v>1.570933041126072</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.692396261422637</v>
@@ -10859,7 +10661,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584666170220115</v>
+        <v>1.572809434836253</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.742219668830584</v>
@@ -10948,7 +10750,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.605903034783283</v>
+        <v>1.588670570952493</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.502631685069883</v>
@@ -11037,7 +10839,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.604564630111144</v>
+        <v>1.588605595308614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.701207451335323</v>
@@ -11126,7 +10928,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616633442627032</v>
+        <v>1.599970260773687</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.71678743991114</v>
@@ -11215,7 +11017,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.61316004783794</v>
+        <v>1.59957130742531</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.648232477409273</v>
@@ -11304,7 +11106,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.633232551313853</v>
+        <v>1.61740336022957</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.601839779406572</v>
@@ -11393,7 +11195,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.654780373369842</v>
+        <v>1.634077755021157</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.18249271283136</v>
@@ -11482,7 +11284,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657672815882834</v>
+        <v>1.633998465531087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.12666265960414</v>
@@ -11571,7 +11373,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.681768919931026</v>
+        <v>1.657365956409705</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.242728940025036</v>
@@ -11660,7 +11462,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.704776149631988</v>
+        <v>1.671026123297058</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.018383388280048</v>
@@ -11749,7 +11551,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686957037992686</v>
+        <v>1.656198580585594</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.332032042288636</v>
@@ -11838,7 +11640,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713168896250594</v>
+        <v>1.673174059744247</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.290497982209334</v>
@@ -11927,7 +11729,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713107468571316</v>
+        <v>1.669630209520674</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.179785237401331</v>
@@ -12016,7 +11818,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.719657871251431</v>
+        <v>1.669867363342737</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.329136722883349</v>
@@ -12105,7 +11907,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.713583301327327</v>
+        <v>1.662089642413846</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.338592327128645</v>
@@ -12194,7 +11996,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.699830295314712</v>
+        <v>1.650708198509901</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.260610077023506</v>
@@ -12283,7 +12085,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.697650642165995</v>
+        <v>1.646149118550638</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.37727658732479</v>
@@ -12372,7 +12174,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.722405417165258</v>
+        <v>1.671383296226106</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.209782400458463</v>
@@ -12461,7 +12263,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.722921641693744</v>
+        <v>1.672650344909057</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.485123502087352</v>
@@ -12550,7 +12352,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.719427282682236</v>
+        <v>1.664975380199091</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.014907615145981</v>
@@ -12639,7 +12441,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.694054006597618</v>
+        <v>1.64700343125662</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.04276393757355</v>
@@ -12728,7 +12530,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.686883995487625</v>
+        <v>1.648173994723301</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.107249530379106</v>
@@ -12817,7 +12619,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.690098707460507</v>
+        <v>1.650849359222871</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.06871186656134</v>
@@ -12906,7 +12708,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.686963831140021</v>
+        <v>1.649466235390034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.27733565671491</v>
@@ -12995,7 +12797,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687443276152506</v>
+        <v>1.652345222834453</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.305058869665383</v>
@@ -13084,7 +12886,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.681249345507076</v>
+        <v>1.647772989188884</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.068133465969376</v>
@@ -13173,7 +12975,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676312197257383</v>
+        <v>1.64647191544685</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.331980194060099</v>
@@ -13262,7 +13064,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676186004798382</v>
+        <v>1.650091204638826</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.098597274533845</v>
@@ -13351,7 +13153,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.668969779399668</v>
+        <v>1.647724221583924</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.282907042435665</v>
@@ -13440,7 +13242,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.67497252813088</v>
+        <v>1.648654303671014</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.76787546968</v>
@@ -13529,7 +13331,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.678850423636671</v>
+        <v>1.65622215262509</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.022585044001047</v>
@@ -13618,7 +13420,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.677895831001373</v>
+        <v>1.651195753293175</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.130837229926974</v>
@@ -13707,7 +13509,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.665741708969026</v>
+        <v>1.640396190643078</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.090971749003155</v>
@@ -13796,7 +13598,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.65509372855968</v>
+        <v>1.628520850651615</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.24712666503037</v>
@@ -13885,7 +13687,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.672438169251624</v>
+        <v>1.642474358621327</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.056311171800104</v>
@@ -13974,7 +13776,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.705280529006418</v>
+        <v>1.669255914696635</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.564557712676914</v>
@@ -14063,7 +13865,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.717880968130313</v>
+        <v>1.674904430511859</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.646585829156344</v>
@@ -14152,7 +13954,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.716380524853693</v>
+        <v>1.674401498085362</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.525297456226125</v>
@@ -14241,7 +14043,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.720842839379942</v>
+        <v>1.674392897443381</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.33956323508312</v>
@@ -14330,7 +14132,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.716223277152689</v>
+        <v>1.670578998440432</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.520907565318705</v>
@@ -14419,7 +14221,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.731813160123663</v>
+        <v>1.680600197513825</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.488186213939821</v>
@@ -14508,7 +14310,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714027602157755</v>
+        <v>1.659755501071762</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.104716223622405</v>
@@ -14597,7 +14399,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.689418487273921</v>
+        <v>1.638012412959684</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.566113816448899</v>
@@ -14686,7 +14488,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.677223555038939</v>
+        <v>1.624404788652346</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.299614303774691</v>
@@ -14775,7 +14577,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.663819010457056</v>
+        <v>1.610974210066359</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.046348376675461</v>
@@ -14864,7 +14666,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.658428555154777</v>
+        <v>1.605936615760521</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.154604631338228</v>
@@ -14953,7 +14755,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.663165797509959</v>
+        <v>1.618021523377309</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.047853416858053</v>
@@ -15042,7 +14844,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.664420092324821</v>
+        <v>1.620793269643717</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.870739463947858</v>
@@ -15131,7 +14933,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.636157103010853</v>
+        <v>1.598439336068881</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.810397329586817</v>
@@ -15220,7 +15022,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.607177667140983</v>
+        <v>1.584029560119714</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.762146089877166</v>
@@ -15309,7 +15111,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.558776733316947</v>
+        <v>1.538503322823234</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.822087900228371</v>
@@ -15398,7 +15200,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.542785519470709</v>
+        <v>1.52232451859659</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.843710156324137</v>
@@ -15487,7 +15289,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.53670500971474</v>
+        <v>1.515361646671139</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.716462354600601</v>
@@ -15576,7 +15378,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.524652962276092</v>
+        <v>1.504021162144476</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.705148332168624</v>
@@ -15665,7 +15467,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.517762684258091</v>
+        <v>1.494488814420983</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.797390981160036</v>
@@ -15754,7 +15556,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.513320555702541</v>
+        <v>1.488630968302814</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.897316190909165</v>
@@ -15843,7 +15645,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.523071352221689</v>
+        <v>1.496868504124106</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.654955534907259</v>
@@ -15932,7 +15734,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.532107903348857</v>
+        <v>1.507179649352137</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.415643372841918</v>
@@ -16218,7 +16020,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.658402617378128</v>
+        <v>1.645477471582346</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.845436124220733</v>
@@ -16307,7 +16109,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.661050213786078</v>
+        <v>1.646187994531545</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.699274665076547</v>
@@ -16396,7 +16198,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.667455301354812</v>
+        <v>1.650046530970101</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.002861336621849</v>
@@ -16485,7 +16287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663730921396119</v>
+        <v>1.646756126180775</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.958887217515134</v>
@@ -16574,7 +16376,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662584554865738</v>
+        <v>1.634131543050237</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.651463984614789</v>
@@ -16663,7 +16465,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.672141791627574</v>
+        <v>1.638133574938109</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.928849309736283</v>
@@ -16752,7 +16554,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.666147281859522</v>
+        <v>1.631405968420647</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.87537221940003</v>
@@ -16841,7 +16643,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.66298833564022</v>
+        <v>1.630336173261411</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.603958565163099</v>
@@ -16930,7 +16732,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.663027610515316</v>
+        <v>1.627241637683101</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.678664584221629</v>
@@ -17019,7 +16821,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657441922170047</v>
+        <v>1.62867940864728</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.563290300351594</v>
@@ -17108,7 +16910,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.666674025541931</v>
+        <v>1.635967309956024</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.524376836704757</v>
@@ -17197,7 +16999,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.666389285850034</v>
+        <v>1.631888764426543</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.705102629255125</v>
@@ -17286,7 +17088,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637765293327637</v>
+        <v>1.598269680605269</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.590035222380143</v>
@@ -17375,7 +17177,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.633894990271421</v>
+        <v>1.59035233141047</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.756411565569377</v>
@@ -17464,7 +17266,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.634987583932085</v>
+        <v>1.594967151330522</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.64041761403962</v>
@@ -17553,7 +17355,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.62826226914953</v>
+        <v>1.589810522213429</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.798424251226197</v>
@@ -17642,7 +17444,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.637786756556106</v>
+        <v>1.595156084261867</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.645801595949915</v>
@@ -17731,7 +17533,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615183768225177</v>
+        <v>1.573136098527825</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.819171009822201</v>
@@ -17820,7 +17622,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610955808300141</v>
+        <v>1.57289306174204</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.866730851937597</v>
@@ -17909,7 +17711,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.601278131664556</v>
+        <v>1.567378665272305</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.764115393584449</v>
@@ -17998,7 +17800,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602821398300391</v>
+        <v>1.570238351215381</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.790206640971903</v>
@@ -18087,7 +17889,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.598710130668358</v>
+        <v>1.559760389753155</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.860557991855043</v>
@@ -18176,7 +17978,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.596070617693286</v>
+        <v>1.553979395763241</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.632913346818795</v>
@@ -18265,7 +18067,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.61801134250312</v>
+        <v>1.573973942072229</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.519649007713049</v>
@@ -18354,7 +18156,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.602582361966269</v>
+        <v>1.560444170788277</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.32699932827374</v>
@@ -18443,7 +18245,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.606330228708114</v>
+        <v>1.563856644682757</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.173855769016777</v>
@@ -18532,7 +18334,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.612281031015697</v>
+        <v>1.569322673697922</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.260954252590846</v>
@@ -18621,7 +18423,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.602394408198149</v>
+        <v>1.559074363368638</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.904534513676122</v>
@@ -18710,7 +18512,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.602727554362671</v>
+        <v>1.551160017499323</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.164132888454908</v>
@@ -18799,7 +18601,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.602457953257859</v>
+        <v>1.552663958505549</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.174043264395228</v>
@@ -18888,7 +18690,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.618651317789708</v>
+        <v>1.564571564257483</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.294818984807164</v>
@@ -18977,7 +18779,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.611805698361953</v>
+        <v>1.568273222303084</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.753595992644212</v>
@@ -19066,7 +18868,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.625026945179569</v>
+        <v>1.579264119744331</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.85091573335399</v>
@@ -19155,7 +18957,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.620569952273908</v>
+        <v>1.579503301357563</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.185535671461782</v>
@@ -19244,7 +19046,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.623164655239488</v>
+        <v>1.581081657349572</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.895451593936915</v>
@@ -19333,7 +19135,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.618269158652943</v>
+        <v>1.582510676327005</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.721354934667554</v>
@@ -19422,7 +19224,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5890352074856</v>
+        <v>1.563406472587079</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.892327276857865</v>
@@ -19511,7 +19313,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.603485894869489</v>
+        <v>1.572493186075088</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.868959317964642</v>
@@ -19600,7 +19402,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.604547307952851</v>
+        <v>1.565947670665297</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.81857039383074</v>
@@ -19689,7 +19491,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.592155261908827</v>
+        <v>1.562780747210248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.158173917186189</v>
@@ -19778,7 +19580,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590531311711678</v>
+        <v>1.557526834653704</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.137028989743442</v>
@@ -19867,7 +19669,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591970673451172</v>
+        <v>1.562652686557618</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.091860638174269</v>
@@ -19956,7 +19758,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594459352976387</v>
+        <v>1.560494342879155</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.869867900275387</v>
@@ -20045,7 +19847,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.605373084728232</v>
+        <v>1.578060610094596</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.830078604715688</v>
@@ -20134,7 +19936,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602811822374985</v>
+        <v>1.567505362244098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.092374004833109</v>
@@ -20223,7 +20025,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.58296284110849</v>
+        <v>1.551793884482709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.906609021769347</v>
@@ -20312,7 +20114,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.586758341948119</v>
+        <v>1.549913641530278</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.004275775322698</v>
@@ -20401,7 +20203,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57829523305577</v>
+        <v>1.538149637740199</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.639379243402945</v>
@@ -20490,7 +20292,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57743281291839</v>
+        <v>1.537225815951643</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.038268144224273</v>
@@ -20579,7 +20381,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.591045661036868</v>
+        <v>1.548799214538825</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.656248503136791</v>
@@ -20668,7 +20470,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.585988184946246</v>
+        <v>1.544248879509168</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.220190022389295</v>
@@ -20757,7 +20559,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.604242394454457</v>
+        <v>1.556078339578656</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.876743864005934</v>
@@ -20846,7 +20648,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603889632678325</v>
+        <v>1.549347038991479</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.873834297559303</v>
@@ -20935,7 +20737,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61045767354681</v>
+        <v>1.558981517102371</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.614637365990489</v>
@@ -21024,7 +20826,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.621526071941887</v>
+        <v>1.56734841592069</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.734435431065793</v>
@@ -21113,7 +20915,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.605057554958677</v>
+        <v>1.554526932468257</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.567066550199879</v>
@@ -21202,7 +21004,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.598941627267402</v>
+        <v>1.5480727194842</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.390042411577514</v>
@@ -21291,7 +21093,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.596394569586997</v>
+        <v>1.544488917930516</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.52213906336662</v>
@@ -21380,7 +21182,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.581526224632366</v>
+        <v>1.528054605123197</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.463530587361834</v>
@@ -21469,7 +21271,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.57610615559217</v>
+        <v>1.524517849541452</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.325361384150258</v>
@@ -21558,7 +21360,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.580654810211423</v>
+        <v>1.528936442446643</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.534477527512379</v>
@@ -21647,7 +21449,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.570386400351081</v>
+        <v>1.521850922577449</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.551902920005972</v>
@@ -21736,7 +21538,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.574651255303433</v>
+        <v>1.53096332767194</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.434657164324304</v>
@@ -21825,7 +21627,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.577945387823442</v>
+        <v>1.531877418392997</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.41185322791356</v>
@@ -21914,7 +21716,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.585156844064666</v>
+        <v>1.540390641081086</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.506112471590972</v>
@@ -22003,7 +21805,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.58488626990227</v>
+        <v>1.544588977546972</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.408447545699144</v>
@@ -22092,7 +21894,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.588548807530177</v>
+        <v>1.556093784141547</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.491055852160164</v>
@@ -22181,7 +21983,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.576407131353727</v>
+        <v>1.55694634242553</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.468845764409358</v>
@@ -22270,7 +22072,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.572454922698867</v>
+        <v>1.550682558944886</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.478337476336763</v>
@@ -22359,7 +22161,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.567892517200175</v>
+        <v>1.549986890047391</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.590540674960346</v>
@@ -22448,7 +22250,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.573871034889896</v>
+        <v>1.556332766772509</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.570033570211923</v>
@@ -22537,7 +22339,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.551755392435662</v>
+        <v>1.542564960546952</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.775163862887284</v>
@@ -22626,7 +22428,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.551435533087768</v>
+        <v>1.539231269607127</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.573433634164045</v>
@@ -22715,7 +22517,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.566913069669777</v>
+        <v>1.555160333160196</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.722259286458507</v>
@@ -22804,7 +22606,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.561057893699671</v>
+        <v>1.551140659388177</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.859794829734092</v>
@@ -22893,7 +22695,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.560105946599008</v>
+        <v>1.557550846341696</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.627481628000397</v>
@@ -23179,7 +22981,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.535803023925242</v>
+        <v>1.519893515424056</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.241103597938227</v>
@@ -23268,7 +23070,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555513205437357</v>
+        <v>1.530015070833396</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.336433254629181</v>
@@ -23357,7 +23159,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.586794761575546</v>
+        <v>1.552542160421234</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.932374336059557</v>
@@ -23446,7 +23248,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58838724961126</v>
+        <v>1.554398950381313</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.656159380493107</v>
@@ -23535,7 +23337,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.582272374836415</v>
+        <v>1.544997212688044</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.782281359944987</v>
@@ -23624,7 +23426,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588064072264588</v>
+        <v>1.545130475820542</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.876530862986233</v>
@@ -23713,7 +23515,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.59206867736694</v>
+        <v>1.548911011648397</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.84000432536107</v>
@@ -23802,7 +23604,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.593306905820278</v>
+        <v>1.548988031491751</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.816554110906722</v>
@@ -23891,7 +23693,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590219308725061</v>
+        <v>1.543946230647049</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.737909893476127</v>
@@ -23980,7 +23782,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.603844171608088</v>
+        <v>1.553389481727424</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.38504296124826</v>
@@ -24069,7 +23871,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62433473149297</v>
+        <v>1.571421307493514</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.908342020034842</v>
@@ -24158,7 +23960,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.633035427920197</v>
+        <v>1.581391385487362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.762065874169702</v>
@@ -24247,7 +24049,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604422647515508</v>
+        <v>1.550558128553149</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.958118032111288</v>
@@ -24336,7 +24138,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594970457748612</v>
+        <v>1.529823053310324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.129033115327484</v>
@@ -24425,7 +24227,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.614670066684376</v>
+        <v>1.542025737743219</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.308529737485863</v>
@@ -24514,7 +24316,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.604856417731078</v>
+        <v>1.529372857704391</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.946540293686114</v>
@@ -24603,7 +24405,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601019072839659</v>
+        <v>1.527722968150379</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.071602769240002</v>
@@ -24692,7 +24494,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598565686849346</v>
+        <v>1.527290769949634</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.045609681762696</v>
@@ -24781,7 +24583,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.599062922751638</v>
+        <v>1.525605307484747</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.729655216582259</v>
@@ -24870,7 +24672,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606102711388857</v>
+        <v>1.53207485020889</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.073616985093337</v>
@@ -24959,7 +24761,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593190895981866</v>
+        <v>1.526345263558908</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.934990466286764</v>
@@ -25048,7 +24850,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.592337556454432</v>
+        <v>1.519543553313911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.128221540751004</v>
@@ -25137,7 +24939,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57510156708418</v>
+        <v>1.501645027763775</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.793818195773927</v>
@@ -25226,7 +25028,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570992665236839</v>
+        <v>1.504461335473469</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.770738138258496</v>
@@ -25315,7 +25117,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573651932178597</v>
+        <v>1.505526643344978</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.757855213466736</v>
@@ -25404,7 +25206,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576397493714343</v>
+        <v>1.501104211004206</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.932996699246993</v>
@@ -25493,7 +25295,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.573335519748305</v>
+        <v>1.494500355240292</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.763026177745488</v>
@@ -25582,7 +25384,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.580299063583557</v>
+        <v>1.501572094491979</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.999729658346687</v>
@@ -25671,7 +25473,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.580267807880877</v>
+        <v>1.507496305959323</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.902330202873421</v>
@@ -25760,7 +25562,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.586676513219216</v>
+        <v>1.510107807177018</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.07679803175813</v>
@@ -25849,7 +25651,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592239267276846</v>
+        <v>1.512607633107071</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.996809169588248</v>
@@ -25938,7 +25740,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.605660524032992</v>
+        <v>1.520668059248505</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.018745737165414</v>
@@ -26027,7 +25829,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607212951347486</v>
+        <v>1.520524604061707</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.934770419711277</v>
@@ -26116,7 +25918,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606906748643322</v>
+        <v>1.517628388833998</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.850543281251405</v>
@@ -26205,7 +26007,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.608414132515011</v>
+        <v>1.516704315702696</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.905541109029435</v>
@@ -26294,7 +26096,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.61341226430287</v>
+        <v>1.52495526881222</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.891315955566993</v>
@@ -26383,7 +26185,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622597557447643</v>
+        <v>1.537245314822352</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.923021523468485</v>
@@ -26472,7 +26274,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639290555056979</v>
+        <v>1.543837924151127</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.764505743880514</v>
@@ -26561,7 +26363,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639510663309139</v>
+        <v>1.546712616578396</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.94542515846938</v>
@@ -26650,7 +26452,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.63335130007576</v>
+        <v>1.543092996128448</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.61132240540909</v>
@@ -26739,7 +26541,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62751935298555</v>
+        <v>1.537515553500396</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.627446235025241</v>
@@ -26828,7 +26630,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.635387271783213</v>
+        <v>1.54736969893213</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.229262076654943</v>
@@ -26917,7 +26719,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626118607831224</v>
+        <v>1.53285289139867</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.239773480532468</v>
@@ -27006,7 +26808,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62470115148814</v>
+        <v>1.529094912869967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.290460258926835</v>
@@ -27095,7 +26897,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623552355340953</v>
+        <v>1.533535306117567</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.45926715558364</v>
@@ -27184,7 +26986,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626847681816769</v>
+        <v>1.539035766771233</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.20078385351149</v>
@@ -27273,7 +27075,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.618722988993773</v>
+        <v>1.532416803296113</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.946702843130939</v>
@@ -27362,7 +27164,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.611195173097301</v>
+        <v>1.527307168228432</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.031770778896014</v>
@@ -27451,7 +27253,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611548670955978</v>
+        <v>1.532015588463489</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.981106621337892</v>
@@ -27540,7 +27342,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.606522404232123</v>
+        <v>1.524319681922403</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.930359090792021</v>
@@ -27629,7 +27431,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610156135976147</v>
+        <v>1.517937363584136</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.894507610818219</v>
@@ -27718,7 +27520,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.598932285614547</v>
+        <v>1.508948938335121</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.032132053545932</v>
@@ -27807,7 +27609,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.609465730496136</v>
+        <v>1.51037588543186</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.102932378352136</v>
@@ -27896,7 +27698,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.606049276149278</v>
+        <v>1.505791276222764</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.101624651060749</v>
@@ -27985,7 +27787,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616350920283488</v>
+        <v>1.510661334963347</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.253999731112576</v>
@@ -28074,7 +27876,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.613374883324029</v>
+        <v>1.518785938621666</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.891337810443073</v>
@@ -28163,7 +27965,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606511754889202</v>
+        <v>1.514892319351959</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.219834720880954</v>
@@ -28252,7 +28054,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.605460192409907</v>
+        <v>1.516388175407438</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.193128914254772</v>
@@ -28341,7 +28143,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.604164490463891</v>
+        <v>1.516212545961497</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.272082888978944</v>
@@ -28430,7 +28232,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.598682079223123</v>
+        <v>1.506342789080962</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.790470076525344</v>
@@ -28519,7 +28321,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.598132441083522</v>
+        <v>1.505446864120772</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.851531548937756</v>
@@ -28608,7 +28410,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.592433048840182</v>
+        <v>1.503194092669229</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.515531040803394</v>
@@ -28697,7 +28499,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.550141569809864</v>
+        <v>1.470970162996898</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.308224342656283</v>
@@ -28786,7 +28588,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.549088685954116</v>
+        <v>1.471731782275931</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.302894730466824</v>
@@ -28875,7 +28677,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.541392178454851</v>
+        <v>1.473770669973152</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.271548800013313</v>
@@ -28964,7 +28766,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.535752649052041</v>
+        <v>1.472038864522583</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.382650179756695</v>
@@ -29053,7 +28855,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.536895494903429</v>
+        <v>1.473345246487759</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.392744636130865</v>
@@ -29142,7 +28944,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.529180048095685</v>
+        <v>1.483988528093842</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.252551521525069</v>
@@ -29231,7 +29033,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.530815778967723</v>
+        <v>1.491247322005617</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.351645895684605</v>
@@ -29320,7 +29122,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.517749519306593</v>
+        <v>1.476152754366544</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.372461693746407</v>
@@ -29409,7 +29211,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.521673853130358</v>
+        <v>1.47350350501384</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.215853823521648</v>
@@ -29498,7 +29300,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.524484162353978</v>
+        <v>1.474368913235049</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.278606941630119</v>
@@ -29587,7 +29389,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.531254486935903</v>
+        <v>1.479762901410803</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.445058159034506</v>
@@ -29676,7 +29478,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.529828910009471</v>
+        <v>1.482295066651934</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.319355299694974</v>
@@ -29765,7 +29567,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.537069777622414</v>
+        <v>1.48933988405102</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.323778668610836</v>
@@ -29854,7 +29656,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.542727979300374</v>
+        <v>1.500843626027703</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.380882598006081</v>
@@ -30140,7 +29942,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.346914570172824</v>
+        <v>1.337059739691976</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.666506924839247</v>
@@ -30229,7 +30031,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.345752176928084</v>
+        <v>1.334781143680601</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.669546185604787</v>
@@ -30318,7 +30120,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.346529784117452</v>
+        <v>1.334431464978853</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.672325446811656</v>
@@ -30407,7 +30209,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.350140146026877</v>
+        <v>1.337595876803955</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.675285979310397</v>
@@ -30496,7 +30298,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.36321464876887</v>
+        <v>1.345797267033674</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.679376234507257</v>
@@ -30585,7 +30387,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.366775640759418</v>
+        <v>1.348035006768976</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.676925662974636</v>
@@ -30674,7 +30476,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.37070168114853</v>
+        <v>1.350725897489716</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.693770553217453</v>
@@ -30763,7 +30565,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.367997952536058</v>
+        <v>1.34920300978576</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.677176323542308</v>
@@ -30852,7 +30654,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.370980260718892</v>
+        <v>1.350168455980407</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.647999316434831</v>
@@ -30941,7 +30743,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.429988609461893</v>
+        <v>1.382622365082821</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.493234948815074</v>
@@ -31030,7 +30832,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.518926181915951</v>
+        <v>1.482517029202944</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.646381377466973</v>
@@ -31119,7 +30921,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513801934377802</v>
+        <v>1.47242010526259</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.597165140979963</v>
@@ -31208,7 +31010,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.494844553190554</v>
+        <v>1.452359691697399</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.679027043171339</v>
@@ -31297,7 +31099,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482172303473494</v>
+        <v>1.443930248210074</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.719997343988422</v>
@@ -31386,7 +31188,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.47652891821609</v>
+        <v>1.440177601454262</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.605738172025946</v>
@@ -31475,7 +31277,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.470886231664149</v>
+        <v>1.435373751231374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.744809081171811</v>
@@ -31564,7 +31366,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496347248813704</v>
+        <v>1.455398831609925</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.235997196421058</v>
@@ -31653,7 +31455,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.489459747616648</v>
+        <v>1.451595351971407</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.71941128974806</v>
@@ -31742,7 +31544,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.48739747330742</v>
+        <v>1.446234048684589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.62935877625977</v>
@@ -31831,7 +31633,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.486724068026316</v>
+        <v>1.442105906824395</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.639684583955156</v>
@@ -31920,7 +31722,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.463078999371666</v>
+        <v>1.424648254240573</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.634621589639307</v>
@@ -32009,7 +31811,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.47474589153908</v>
+        <v>1.42857429029947</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.478446306239658</v>
@@ -32098,7 +31900,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.408549204012981</v>
+        <v>1.34674300403007</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.596015868355737</v>
@@ -32187,7 +31989,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.329988410076865</v>
+        <v>1.312533745231538</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.604823771221925</v>
@@ -32276,7 +32078,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.321742798419072</v>
+        <v>1.306681757860726</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.608856971429717</v>
@@ -32365,7 +32167,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.325076851057064</v>
+        <v>1.307335808575504</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.625129055126431</v>
@@ -32454,7 +32256,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.317478972578018</v>
+        <v>1.305164271839816</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.623251095466212</v>
@@ -32543,7 +32345,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.312899588256398</v>
+        <v>1.304308937812511</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.62654052474367</v>
@@ -32632,7 +32434,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.314079103521567</v>
+        <v>1.302428738127381</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.611069843492821</v>
@@ -32721,7 +32523,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.308457527264805</v>
+        <v>1.292602679854894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.619671274494995</v>
@@ -32810,7 +32612,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.311083430380786</v>
+        <v>1.295748267563547</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.616846074771474</v>
@@ -32899,7 +32701,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.30611736392928</v>
+        <v>1.290846984400536</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.61609793400868</v>
@@ -32988,7 +32790,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.29892833931313</v>
+        <v>1.281173155071764</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.61652261425222</v>
@@ -33077,7 +32879,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.293587312274109</v>
+        <v>1.278118225233676</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.635085061209549</v>
@@ -33166,7 +32968,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.294594159099641</v>
+        <v>1.278456480992286</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.598468948005936</v>
@@ -33255,7 +33057,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.299581428143088</v>
+        <v>1.284033220481919</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.62087835787384</v>
@@ -33344,7 +33146,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.303700351622493</v>
+        <v>1.289741595749202</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.605812657541131</v>
@@ -33433,7 +33235,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.386375123906725</v>
+        <v>1.360248872131699</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.684887059419181</v>
@@ -33522,7 +33324,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.420608286193745</v>
+        <v>1.381944889445436</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.236951287003076</v>
@@ -33611,7 +33413,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.445316326614021</v>
+        <v>1.404152748709087</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.262456706460197</v>
@@ -33700,7 +33502,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.42144029154286</v>
+        <v>1.383656540530036</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.359836466821803</v>
@@ -33789,7 +33591,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.445043406797117</v>
+        <v>1.396880710769561</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.372744723276869</v>
@@ -33878,7 +33680,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.434677617148924</v>
+        <v>1.386953180734426</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.336435974640963</v>
@@ -33967,7 +33769,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.437460686802257</v>
+        <v>1.390822289864579</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.370806739295519</v>
@@ -34056,7 +33858,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.459260407161244</v>
+        <v>1.408702197569393</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.253517789563494</v>
@@ -34145,7 +33947,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.461032372237728</v>
+        <v>1.411691584338497</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.518022257572254</v>
@@ -34234,7 +34036,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.433204980310743</v>
+        <v>1.384663916771758</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.173974890927025</v>
@@ -34323,7 +34125,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.440051186270527</v>
+        <v>1.390963677215974</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.513269006220205</v>
@@ -34412,7 +34214,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.428304036968743</v>
+        <v>1.376883793123059</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.343115952510813</v>
@@ -34501,7 +34303,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.433925430803263</v>
+        <v>1.380940330568237</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.294926308939616</v>
@@ -34590,7 +34392,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.425893774028551</v>
+        <v>1.377120709252144</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.452548166722419</v>
@@ -34679,7 +34481,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.428588789722951</v>
+        <v>1.377293666225472</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.334454268173838</v>
@@ -34768,7 +34570,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.436441212666023</v>
+        <v>1.384886682403132</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.273041741241535</v>
@@ -34857,7 +34659,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.449829115406138</v>
+        <v>1.400263550040115</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.400195524766763</v>
@@ -34946,7 +34748,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.440494794739033</v>
+        <v>1.391312502675463</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.359651781439018</v>
@@ -35035,7 +34837,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.448510323213227</v>
+        <v>1.398189084592486</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.464010274633307</v>
@@ -35124,7 +34926,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.433899613555597</v>
+        <v>1.386625669917865</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.187167683777971</v>
@@ -35213,7 +35015,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.444591697819026</v>
+        <v>1.39698104886647</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.320939192868894</v>
@@ -35302,7 +35104,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.424877752166468</v>
+        <v>1.379954880206983</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.397560317104756</v>
@@ -35391,7 +35193,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.417588338383557</v>
+        <v>1.372800399417956</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.317297320369184</v>
@@ -35480,7 +35282,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.431169154198332</v>
+        <v>1.383311666267065</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.004893226876823</v>
@@ -35569,7 +35371,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.435977759835415</v>
+        <v>1.392541034570242</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.514323074509816</v>
@@ -35658,7 +35460,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.43744034729692</v>
+        <v>1.398274890724302</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.554548519278601</v>
@@ -35747,7 +35549,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.446884223536175</v>
+        <v>1.408815400191253</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.502533099051636</v>
@@ -35836,7 +35638,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.451757908528436</v>
+        <v>1.410898533312054</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.606149169737491</v>
@@ -35925,7 +35727,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.457956543026494</v>
+        <v>1.42076423526963</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.566183077288564</v>
@@ -36014,7 +35816,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.463940424776632</v>
+        <v>1.421806313166379</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.261456395542085</v>
@@ -36103,7 +35905,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.454078548543794</v>
+        <v>1.413094299228271</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.394443479231335</v>
@@ -36192,7 +35994,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.442050866122774</v>
+        <v>1.40716300732399</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.327538512700085</v>
@@ -36281,7 +36083,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.439615984910743</v>
+        <v>1.409588655495926</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.465999555942439</v>
@@ -36370,7 +36172,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.439522553139726</v>
+        <v>1.406938590116956</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.421002098724839</v>
@@ -36459,7 +36261,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.447612416399779</v>
+        <v>1.412483881993447</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.369733367679811</v>
@@ -36548,7 +36350,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.427075594261433</v>
+        <v>1.39196703792813</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.275225569927286</v>
@@ -36637,7 +36439,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.430432028375457</v>
+        <v>1.401370611926528</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.317230681801697</v>
@@ -36726,7 +36528,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.428312093829024</v>
+        <v>1.399473677070071</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.261802991333257</v>
@@ -36815,7 +36617,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.435079992615105</v>
+        <v>1.406200523990505</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.330745293984801</v>
@@ -37101,7 +36903,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.291729383425024</v>
+        <v>1.292160009333605</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.082674129891294</v>
@@ -37190,7 +36992,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290903538385581</v>
+        <v>1.28987597364612</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.963251874325843</v>
@@ -37279,7 +37081,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.300109567810845</v>
+        <v>1.299151486279177</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.086674478891292</v>
@@ -37368,7 +37170,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.310345868909891</v>
+        <v>1.306312682597615</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.975572573560894</v>
@@ -37457,7 +37259,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.306320285911716</v>
+        <v>1.307265492403288</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.073280260191762</v>
@@ -37546,7 +37348,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.310957070313149</v>
+        <v>1.31309791819852</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.041980077436886</v>
@@ -37635,7 +37437,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.315819378125982</v>
+        <v>1.314761332980489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.956282950853998</v>
@@ -37724,7 +37526,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.350206402820139</v>
+        <v>1.347061790965801</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.971607438232183</v>
@@ -37813,7 +37615,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.350816323639833</v>
+        <v>1.340859435476978</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.961317152922535</v>
@@ -37902,7 +37704,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.35216367240782</v>
+        <v>1.343207990515291</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.949880657068838</v>
@@ -37991,7 +37793,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.346757474037117</v>
+        <v>1.337408377501982</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.993444827699289</v>
@@ -38080,7 +37882,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.348528206041583</v>
+        <v>1.341058844453208</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.976215498485484</v>
@@ -38169,7 +37971,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.369382686695366</v>
+        <v>1.354806312340082</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.305673841014551</v>
@@ -38258,7 +38060,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.361165386885461</v>
+        <v>1.349011120330128</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.508166222658732</v>
@@ -38347,7 +38149,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.359146952112215</v>
+        <v>1.347535603471455</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.58339257785631</v>
@@ -38436,7 +38238,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.356367948457801</v>
+        <v>1.344460376937895</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.433688931122318</v>
@@ -38525,7 +38327,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.354866674047392</v>
+        <v>1.343670839071275</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.479204612127763</v>
@@ -38614,7 +38416,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.329746722543061</v>
+        <v>1.316688453715477</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.401660720859351</v>
@@ -38703,7 +38505,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.329582189908596</v>
+        <v>1.315440475996078</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.11419769507247</v>
@@ -38792,7 +38594,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.302754887387653</v>
+        <v>1.287497036114054</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.072261661895312</v>
@@ -38881,7 +38683,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.30247466457641</v>
+        <v>1.285900086915988</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.123786463595015</v>
@@ -38970,7 +38772,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.301970742413285</v>
+        <v>1.283805945381283</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.159242616815899</v>
@@ -39059,7 +38861,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.290984179707146</v>
+        <v>1.269141282034926</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.061781161335384</v>
@@ -39148,7 +38950,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.294501939120791</v>
+        <v>1.280431700363519</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.921208806312182</v>
@@ -39237,7 +39039,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.300593332531333</v>
+        <v>1.282927860768445</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.056901402064318</v>
@@ -39326,7 +39128,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.305828213038135</v>
+        <v>1.288791917110725</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.089990585556299</v>
@@ -39415,7 +39217,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.305493413181571</v>
+        <v>1.289420596483751</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.084000701718667</v>
@@ -39504,7 +39306,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.302521689503536</v>
+        <v>1.285974818424126</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.134141371242367</v>
@@ -39593,7 +39395,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.318197570128331</v>
+        <v>1.292981906995551</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.017571282262922</v>
@@ -39682,7 +39484,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.324932936319342</v>
+        <v>1.302895530778204</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.014130870228811</v>
@@ -39771,7 +39573,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.336256035292802</v>
+        <v>1.310572094890076</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.123615656671271</v>
@@ -39860,7 +39662,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.335564481816924</v>
+        <v>1.309908642273814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.034869847164206</v>
@@ -39949,7 +39751,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.359536534604575</v>
+        <v>1.330487921695521</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.080059035185436</v>
@@ -40038,7 +39840,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.334944619008089</v>
+        <v>1.315600534439295</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.100499448444941</v>
@@ -40127,7 +39929,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.36795364373808</v>
+        <v>1.34709453144815</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.111967602469499</v>
@@ -40216,7 +40018,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.372513433210271</v>
+        <v>1.350282897057047</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.093878706652525</v>
@@ -40305,7 +40107,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.373961703470901</v>
+        <v>1.351043324210391</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.943805656302875</v>
@@ -40394,7 +40196,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.379071414395248</v>
+        <v>1.35551962563528</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.075408743169053</v>
@@ -40483,7 +40285,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.352589296546063</v>
+        <v>1.331745566802048</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.937278242914778</v>
@@ -40572,7 +40374,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.35492955912412</v>
+        <v>1.335094891373985</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.043078299779026</v>
@@ -40661,7 +40463,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.358003471819518</v>
+        <v>1.335604660030814</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.975538243612164</v>
@@ -40750,7 +40552,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.365130229869693</v>
+        <v>1.34122769357665</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.025947406323217</v>
@@ -40839,7 +40641,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.364833268153954</v>
+        <v>1.343632566511629</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.976051176506965</v>
@@ -40928,7 +40730,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.351273078016968</v>
+        <v>1.33555643602118</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.97505831064347</v>
@@ -41017,7 +40819,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.330952876745563</v>
+        <v>1.314648307818114</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.005848306611449</v>
@@ -41106,7 +40908,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.331342701026438</v>
+        <v>1.313565006173793</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.001692586143921</v>
@@ -41195,7 +40997,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.321728258871595</v>
+        <v>1.302638672543694</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.953218179252264</v>
@@ -41284,7 +41086,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.315909792629177</v>
+        <v>1.295978617698024</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.986537765028038</v>
@@ -41373,7 +41175,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.319130707912179</v>
+        <v>1.29001585911509</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.124307694604599</v>
@@ -41462,7 +41264,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.297881950291606</v>
+        <v>1.272722645369927</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.117518760129979</v>
@@ -41551,7 +41353,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.278932399251756</v>
+        <v>1.25467463737774</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.117713115865144</v>
@@ -41640,7 +41442,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.250040076950966</v>
+        <v>1.226639923255086</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.066052833499166</v>
@@ -41729,7 +41531,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.242157467504819</v>
+        <v>1.219322477706115</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.082378850779193</v>
@@ -41818,7 +41620,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.226041913546045</v>
+        <v>1.209054632630955</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.021295794786108</v>
@@ -41907,7 +41709,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.224076539162048</v>
+        <v>1.207245203321615</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.005257848712587</v>
@@ -41996,7 +41798,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.225745439886056</v>
+        <v>1.208599104593953</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.040264107718214</v>
@@ -42085,7 +41887,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.21828896934976</v>
+        <v>1.203147624625122</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.124710142046539</v>
@@ -42174,7 +41976,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.215039077171413</v>
+        <v>1.202556072613978</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.1022306704345</v>
@@ -42263,7 +42065,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.209236810232277</v>
+        <v>1.195624928638135</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.094119007602103</v>
@@ -42352,7 +42154,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.20897560456873</v>
+        <v>1.195548822697457</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.11080073452277</v>
@@ -42441,7 +42243,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.213362480305328</v>
+        <v>1.2002548469541</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.071990127212073</v>
@@ -42530,7 +42332,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.206014573693929</v>
+        <v>1.196237337759184</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.120403996077572</v>
@@ -42619,7 +42421,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.205352872918174</v>
+        <v>1.195915182770415</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.140756478172928</v>
@@ -42708,7 +42510,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.213296288207854</v>
+        <v>1.206419395795643</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.195746337511208</v>
@@ -42797,7 +42599,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.22497531223835</v>
+        <v>1.221612869264018</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.157013519364407</v>
@@ -42886,7 +42688,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.225192751095905</v>
+        <v>1.224483229932776</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.050787011795235</v>
@@ -42975,7 +42777,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.256054032420348</v>
+        <v>1.258882113004793</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.125652638458555</v>
@@ -43064,7 +42866,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.269312619955691</v>
+        <v>1.26928804288601</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.062234953259996</v>
@@ -43153,7 +42955,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.300046455342529</v>
+        <v>1.299179511257931</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.317885142242395</v>
@@ -43242,7 +43044,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.297826321036716</v>
+        <v>1.303037855693297</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.436126883427689</v>
@@ -43331,7 +43133,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.297464883623664</v>
+        <v>1.3005087748079</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.377979358526279</v>
@@ -43420,7 +43222,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.290688079462718</v>
+        <v>1.294922958898411</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.516895062866668</v>
@@ -43509,7 +43311,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.295781474742714</v>
+        <v>1.299282887644547</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.382469616695399</v>
@@ -43598,7 +43400,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.320500505666595</v>
+        <v>1.326526882204038</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.440613504289083</v>
@@ -43687,7 +43489,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.327320657333107</v>
+        <v>1.338341554062512</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.590060293575282</v>
@@ -43776,7 +43578,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.327655306111288</v>
+        <v>1.34034233552517</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.19161955260362</v>
@@ -44062,7 +43864,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61271730466752</v>
+        <v>1.609679848078421</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.983865154501283</v>
@@ -44151,7 +43953,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624969995215751</v>
+        <v>1.619638079755166</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.007187150262254</v>
@@ -44240,7 +44042,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.632239083337635</v>
+        <v>1.626232446041709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.811824589565354</v>
@@ -44329,7 +44131,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.646668887827774</v>
+        <v>1.634365735660479</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.935619004513352</v>
@@ -44418,7 +44220,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.657549925908316</v>
+        <v>1.642153911578842</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.829754357174481</v>
@@ -44507,7 +44309,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.660704627791937</v>
+        <v>1.642735459047812</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.883547135838357</v>
@@ -44596,7 +44398,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.648249805297527</v>
+        <v>1.629809133539099</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.856944099823398</v>
@@ -44685,7 +44487,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.660571996939336</v>
+        <v>1.637543123432781</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.787044974938469</v>
@@ -44774,7 +44576,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.645919392573571</v>
+        <v>1.623886876016007</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.017925222814139</v>
@@ -44863,7 +44665,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.626940689376373</v>
+        <v>1.603409654049001</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.663610807512173</v>
@@ -44952,7 +44754,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.639918302892719</v>
+        <v>1.613410627373806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.973532671553459</v>
@@ -45041,7 +44843,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645384081310727</v>
+        <v>1.618568141763438</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.76181809456659</v>
@@ -45130,7 +44932,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.672427121215709</v>
+        <v>1.634726373838067</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.916644777372027</v>
@@ -45219,7 +45021,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668634408310153</v>
+        <v>1.62971602711328</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.271039595942408</v>
@@ -45308,7 +45110,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.664411914795791</v>
+        <v>1.625579748880656</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.415155191988617</v>
@@ -45397,7 +45199,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.657085966732615</v>
+        <v>1.619106029255982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.274911777070876</v>
@@ -45486,7 +45288,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.677524391213306</v>
+        <v>1.634368768273796</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.454699510589383</v>
@@ -45575,7 +45377,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.671863362369928</v>
+        <v>1.628305293510638</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.14750965456996</v>
@@ -45664,7 +45466,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.666436850309817</v>
+        <v>1.627700758107312</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.516331864433011</v>
@@ -45753,7 +45555,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.68500510736211</v>
+        <v>1.638646424529644</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.238915956428521</v>
@@ -45842,7 +45644,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.702058791257891</v>
+        <v>1.652841293316626</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.18456334599737</v>
@@ -45931,7 +45733,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.706455667158957</v>
+        <v>1.656680621260172</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.496267801723674</v>
@@ -46020,7 +45822,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708088192888632</v>
+        <v>1.663759610064034</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.193809909745637</v>
@@ -46109,7 +45911,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.726265314633709</v>
+        <v>1.679729800450972</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.201065777605522</v>
@@ -46198,7 +46000,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.745073809608497</v>
+        <v>1.699291796597673</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.675406740730045</v>
@@ -46287,7 +46089,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.751904790722285</v>
+        <v>1.703227236977245</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.458620410688488</v>
@@ -46376,7 +46178,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.76540865807795</v>
+        <v>1.715026531567554</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.22637646283993</v>
@@ -46465,7 +46267,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.762023200905913</v>
+        <v>1.715578115384095</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.426960568351083</v>
@@ -46554,7 +46356,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.762658761570138</v>
+        <v>1.7118915542849</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.409142375473006</v>
@@ -46643,7 +46445,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.781204923598589</v>
+        <v>1.724077466354142</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.318758542180256</v>
@@ -46732,7 +46534,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.787624327753515</v>
+        <v>1.726975035194467</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.744627690083248</v>
@@ -46821,7 +46623,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.774866542977137</v>
+        <v>1.71191883309581</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.391228218739238</v>
@@ -46910,7 +46712,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.775071492554934</v>
+        <v>1.711518018658727</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.636191513133539</v>
@@ -46999,7 +46801,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.779792963978164</v>
+        <v>1.715612778337778</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.406793379331249</v>
@@ -47088,7 +46890,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.781845335620303</v>
+        <v>1.718673377006541</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.849145739388566</v>
@@ -47177,7 +46979,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.779796098323653</v>
+        <v>1.719429915274787</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.370429135835309</v>
@@ -47266,7 +47068,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.780990211284311</v>
+        <v>1.719107269539766</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.03084257196303</v>
@@ -47355,7 +47157,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.765102789094841</v>
+        <v>1.699944218493879</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.133195839203222</v>
@@ -47444,7 +47246,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.747185486190983</v>
+        <v>1.690551860593992</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.950597160003876</v>
@@ -47533,7 +47335,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.739917431557576</v>
+        <v>1.683267048837186</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.924077406870184</v>
@@ -47622,7 +47424,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.739112374014816</v>
+        <v>1.681825733158246</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.928898567639552</v>
@@ -47711,7 +47513,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.736501032470156</v>
+        <v>1.678185168586909</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.925587815400238</v>
@@ -47800,7 +47602,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.736076798430906</v>
+        <v>1.672195739592129</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.991374532615693</v>
@@ -47889,7 +47691,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.725145423357474</v>
+        <v>1.666201428181341</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.777940744468798</v>
@@ -47978,7 +47780,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.716963990723859</v>
+        <v>1.65945106306867</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.801151033945702</v>
@@ -48067,7 +47869,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.718203350022323</v>
+        <v>1.659133898029382</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.695356770161176</v>
@@ -48156,7 +47958,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.727261341191673</v>
+        <v>1.665442701582204</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.021999941890694</v>
@@ -48245,7 +48047,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.709843251798418</v>
+        <v>1.65495926200569</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.908055465454203</v>
@@ -48334,7 +48136,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.710273841140705</v>
+        <v>1.656979452039293</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.717294262869056</v>
@@ -48423,7 +48225,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.717449573264116</v>
+        <v>1.659298856205931</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.957900384883929</v>
@@ -48512,7 +48314,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.719721138812581</v>
+        <v>1.659945008766877</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.033262926866366</v>
@@ -48601,7 +48403,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.721395031404785</v>
+        <v>1.663823057483558</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.688702953031449</v>
@@ -48690,7 +48492,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.739264751757694</v>
+        <v>1.680296947005758</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.02735950164205</v>
@@ -48779,7 +48581,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.765681438033577</v>
+        <v>1.694281356801528</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.006965983218879</v>
@@ -48868,7 +48670,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.771309452521121</v>
+        <v>1.700205911058607</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.236542470964011</v>
@@ -48957,7 +48759,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.76691633407809</v>
+        <v>1.694974018179553</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.527887697133262</v>
@@ -49046,7 +48848,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.771707642477326</v>
+        <v>1.699473279382036</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.731539900709848</v>
@@ -49135,7 +48937,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.772836035704634</v>
+        <v>1.703774977022439</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.268189675232293</v>
@@ -49224,7 +49026,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.767277719869436</v>
+        <v>1.700422619274163</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.9733305487303</v>
@@ -49313,7 +49115,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.760405787383841</v>
+        <v>1.695720626999169</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.237839677395403</v>
@@ -49402,7 +49204,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.73330354604618</v>
+        <v>1.679592096136315</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.311534364975401</v>
@@ -49491,7 +49293,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.727844957060884</v>
+        <v>1.680243870960392</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.019279101132406</v>
@@ -49580,7 +49382,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.749682602601293</v>
+        <v>1.69909101359576</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.203315062346637</v>
@@ -49669,7 +49471,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.743175769093257</v>
+        <v>1.694336555398887</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.234935197643332</v>
@@ -49758,7 +49560,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.74137733507347</v>
+        <v>1.695575054903333</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.209858671981599</v>
@@ -49847,7 +49649,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.731768400212621</v>
+        <v>1.690470270629721</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.050940784426307</v>
@@ -49936,7 +49738,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.700152160535214</v>
+        <v>1.664683714927135</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.001375762174061</v>
@@ -50025,7 +49827,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.662829441712996</v>
+        <v>1.636412131391066</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.915604534861445</v>
@@ -50114,7 +49916,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.623987654976811</v>
+        <v>1.599927245185905</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.982731116490621</v>
@@ -50203,7 +50005,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.606045475679285</v>
+        <v>1.586906634142797</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.953139377310576</v>
@@ -50292,7 +50094,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.596929010300757</v>
+        <v>1.581303845933906</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.686019065652413</v>
@@ -50381,7 +50183,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.584286759352369</v>
+        <v>1.568984479361936</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.89464656257895</v>
@@ -50470,7 +50272,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.56915038191914</v>
+        <v>1.554628310334925</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.994030701331944</v>
@@ -50559,7 +50361,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.574791816302255</v>
+        <v>1.558157326073394</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.884244538562529</v>
@@ -50648,7 +50450,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.57249090851305</v>
+        <v>1.558220470071817</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.834450056284026</v>
@@ -50737,7 +50539,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.584123407812106</v>
+        <v>1.566531710879122</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.620067447028863</v>
